--- a/Social charging model/charging_satisfaction_summary.xlsx
+++ b/Social charging model/charging_satisfaction_summary.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>7.692307692307692</v>
       </c>
       <c r="C2" t="n">
-        <v>80.89419416882141</v>
+        <v>84.34272433493229</v>
       </c>
       <c r="D2" t="n">
-        <v>31.63749962584645</v>
+        <v>36.72129187703603</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C3" t="n">
-        <v>89.13850700088364</v>
+        <v>84.17201408238758</v>
       </c>
       <c r="D3" t="n">
-        <v>60.20511980270653</v>
+        <v>66.25030439306441</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>7.692307692307692</v>
       </c>
       <c r="C4" t="n">
-        <v>87.00754590474494</v>
+        <v>89.37870012069459</v>
       </c>
       <c r="D4" t="n">
-        <v>54.10322921300487</v>
+        <v>61.38898691424354</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>7.692307692307692</v>
       </c>
       <c r="C5" t="n">
-        <v>83.47571571712811</v>
+        <v>86.88045960878532</v>
       </c>
       <c r="D5" t="n">
-        <v>32.74578246947955</v>
+        <v>37.69831867003821</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>89.81182304638018</v>
+        <v>88.60066727124739</v>
       </c>
       <c r="D6" t="n">
-        <v>73.85843497462895</v>
+        <v>77.95790981487728</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C7" t="n">
-        <v>89.30036890927565</v>
+        <v>88.62511988826583</v>
       </c>
       <c r="D7" t="n">
-        <v>68.82254084597142</v>
+        <v>73.36695549008881</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>88.78805433652579</v>
+        <v>88.99557289333146</v>
       </c>
       <c r="D8" t="n">
-        <v>58.84982838640398</v>
+        <v>66.6814898538944</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>87.35454566614922</v>
+        <v>89.58462096240525</v>
       </c>
       <c r="D9" t="n">
-        <v>81.93357559241082</v>
+        <v>85.52601147797097</v>
       </c>
     </row>
   </sheetData>

--- a/Social charging model/charging_satisfaction_summary.xlsx
+++ b/Social charging model/charging_satisfaction_summary.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No behaviors</t>
+          <t>No behaviours</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Behavior 1</t>
+          <t>B1 (moving)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Behavior 2</t>
+          <t>B2 (requesting)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Behavior 3</t>
+          <t>B3 (notifying)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Behavior 1 and 2</t>
+          <t>B1 (moving) and B2 (requesting)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Behavior 1 and 3</t>
+          <t>B1 (moving) and B3 (notifying)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Behavior 2 and 3</t>
+          <t>B2 (requesting) and B3 (notifying)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>All social behaviors</t>
+          <t>All behaviours</t>
         </is>
       </c>
       <c r="B9" t="n">

--- a/Social charging model/charging_satisfaction_summary.xlsx
+++ b/Social charging model/charging_satisfaction_summary.xlsx
@@ -465,10 +465,10 @@
         <v>7.692307692307692</v>
       </c>
       <c r="C2" t="n">
-        <v>84.34272433493229</v>
+        <v>88.63929303514631</v>
       </c>
       <c r="D2" t="n">
-        <v>36.72129187703603</v>
+        <v>40.03950428415587</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="C3" t="n">
-        <v>84.17201408238758</v>
+        <v>85.08306737582647</v>
       </c>
       <c r="D3" t="n">
-        <v>66.25030439306441</v>
+        <v>76.33610488677604</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.692307692307692</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="C4" t="n">
-        <v>89.37870012069459</v>
+        <v>88.00492926060745</v>
       </c>
       <c r="D4" t="n">
-        <v>61.38898691424354</v>
+        <v>71.1588080641254</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>7.692307692307692</v>
       </c>
       <c r="C5" t="n">
-        <v>86.88045960878532</v>
+        <v>89.94321738516827</v>
       </c>
       <c r="D5" t="n">
-        <v>37.69831867003821</v>
+        <v>40.29332510135731</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="C6" t="n">
-        <v>88.60066727124739</v>
+        <v>88.15907410538675</v>
       </c>
       <c r="D6" t="n">
-        <v>77.95790981487728</v>
+        <v>88.15907410538675</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="C7" t="n">
-        <v>88.62511988826583</v>
+        <v>87.07803508584608</v>
       </c>
       <c r="D7" t="n">
-        <v>73.36695549008881</v>
+        <v>78.95681347173027</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.333333333333334</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="C8" t="n">
-        <v>88.99557289333146</v>
+        <v>89.53267275816702</v>
       </c>
       <c r="D8" t="n">
-        <v>66.6814898538944</v>
+        <v>74.28823824637688</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>89.58462096240525</v>
+        <v>86.33706528481468</v>
       </c>
       <c r="D9" t="n">
-        <v>85.52601147797097</v>
+        <v>90.27271577374452</v>
       </c>
     </row>
   </sheetData>
